--- a/biology/Zoologie/Hyloxalus_sordidatus/Hyloxalus_sordidatus.xlsx
+++ b/biology/Zoologie/Hyloxalus_sordidatus/Hyloxalus_sordidatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyloxalus sordidatus est une espèce d'amphibiens de la famille des Dendrobatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyloxalus sordidatus est une espèce d'amphibiens de la famille des Dendrobatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Pérou[1]. Elle se rencontre dans la province de Lamas dans la région de San Martín et dans la province de Bagua dans la région d'Amazonas de 500 à 520 m d'altitude dans la cordillère Centrale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Pérou. Elle se rencontre dans la province de Lamas dans la région de San Martín et dans la province de Bagua dans la région d'Amazonas de 500 à 520 m d'altitude dans la cordillère Centrale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent jusqu'à 29,9 et les femelles jusqu'à 36,1[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent jusqu'à 29,9 et les femelles jusqu'à 36,1.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique sordidatus vient du latin sordidatus, vêtu pauvrement, en référence à la coloration dorsale terne de cette espèce[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique sordidatus vient du latin sordidatus, vêtu pauvrement, en référence à la coloration dorsale terne de cette espèce.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duellman, 2004 : Frogs of the genus Colostethus (Anura, Dendrobatidae) in the Andes of northern Peru. Scientific Papers of the Natural History Museum, University of Kansas, no 35, p. 1-49 (texte intégral).</t>
         </is>
